--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -615,7 +615,7 @@
         <v>8.16</v>
       </c>
       <c r="G2">
-        <v>2.023333333333333</v>
+        <v>2.02</v>
       </c>
       <c r="H2">
         <v>0.38</v>
@@ -648,13 +648,13 @@
         <v>0.64</v>
       </c>
       <c r="R2">
-        <v>186.96875</v>
+        <v>186.97</v>
       </c>
       <c r="S2">
         <v>0.16</v>
       </c>
       <c r="T2">
-        <v>8.115714285714287</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U2">
         <v>1.19</v>
@@ -710,7 +710,7 @@
         <v>13.17</v>
       </c>
       <c r="G3">
-        <v>2.023333333333333</v>
+        <v>2.02</v>
       </c>
       <c r="H3">
         <v>0.55</v>
@@ -743,13 +743,13 @@
         <v>5.54</v>
       </c>
       <c r="R3">
-        <v>186.96875</v>
+        <v>186.97</v>
       </c>
       <c r="S3">
         <v>3.21</v>
       </c>
       <c r="T3">
-        <v>8.115714285714287</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U3">
         <v>9.199999999999999</v>
@@ -805,7 +805,7 @@
         <v>21.03</v>
       </c>
       <c r="G4">
-        <v>2.023333333333333</v>
+        <v>2.02</v>
       </c>
       <c r="H4">
         <v>0.91</v>
@@ -871,10 +871,10 @@
         <v>3.43</v>
       </c>
       <c r="AC4">
-        <v>158.7671428571428</v>
+        <v>158.77</v>
       </c>
       <c r="AD4">
-        <v>51.78571428571428</v>
+        <v>51.79</v>
       </c>
       <c r="AE4">
         <v>0.02</v>
@@ -900,7 +900,7 @@
         <v>30.17</v>
       </c>
       <c r="G5">
-        <v>2.023333333333333</v>
+        <v>2.02</v>
       </c>
       <c r="H5">
         <v>1.14</v>
@@ -966,10 +966,10 @@
         <v>2.6</v>
       </c>
       <c r="AC5">
-        <v>158.7671428571428</v>
+        <v>158.77</v>
       </c>
       <c r="AD5">
-        <v>51.78571428571428</v>
+        <v>51.79</v>
       </c>
       <c r="AE5">
         <v>0.03</v>
@@ -1034,7 +1034,7 @@
         <v>0.01</v>
       </c>
       <c r="T6">
-        <v>8.115714285714287</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U6">
         <v>39.21</v>
@@ -1061,10 +1061,10 @@
         <v>3.54</v>
       </c>
       <c r="AC6">
-        <v>158.7671428571428</v>
+        <v>158.77</v>
       </c>
       <c r="AD6">
-        <v>51.78571428571428</v>
+        <v>51.79</v>
       </c>
       <c r="AE6">
         <v>13.85</v>
@@ -1316,7 +1316,7 @@
         <v>351.17</v>
       </c>
       <c r="S9">
-        <v>0.7275</v>
+        <v>0.73</v>
       </c>
       <c r="T9">
         <v>4.98</v>
@@ -1506,7 +1506,7 @@
         <v>698.34</v>
       </c>
       <c r="S11">
-        <v>0.7275</v>
+        <v>0.73</v>
       </c>
       <c r="T11">
         <v>16.05</v>
